--- a/data/trans_dic/P02E$otras-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P02E$otras-Dificultad-trans_dic.xlsx
@@ -678,28 +678,28 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02455338687381562</v>
+        <v>0.0235073017380102</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01806584454827706</v>
+        <v>0.01787350839744213</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01616355877749997</v>
+        <v>0.01779848066644905</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04197859269502934</v>
+        <v>0.04324627718246257</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05957637003292981</v>
+        <v>0.06080104043985998</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0166296087780362</v>
+        <v>0.01675941824540072</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04062403131070376</v>
+        <v>0.03975082425847477</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04855320320216151</v>
+        <v>0.05012057481088376</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07704948873835135</v>
+        <v>0.07500055042934896</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07202568531833245</v>
+        <v>0.07173932272692553</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06198359204779249</v>
+        <v>0.0637190206294571</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06336810460058917</v>
+        <v>0.0635084010673643</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.08434099605065147</v>
+        <v>0.08498104957485422</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1114857642869932</v>
+        <v>0.1126025921963423</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.0526707917378252</v>
+        <v>0.05470492070994973</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.07183472526648201</v>
+        <v>0.07210894053574335</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.08414309857732385</v>
+        <v>0.08492636178924673</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0280963908454807</v>
+        <v>0.02502651249625577</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03896217083238362</v>
+        <v>0.03885145333063745</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02559006873319684</v>
+        <v>0.02665965544284863</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03603013835435782</v>
+        <v>0.03763976267897653</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03178848103929349</v>
+        <v>0.03015596483588915</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03775581647253586</v>
+        <v>0.03821984715351914</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03822845100143758</v>
+        <v>0.0371204390354338</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03933165915513474</v>
+        <v>0.03827039460603322</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04023522336874856</v>
+        <v>0.03836984815110023</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08943577259545551</v>
+        <v>0.08505315443928226</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09666523269554946</v>
+        <v>0.09581896327175302</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.08779254794512346</v>
+        <v>0.09574825115006454</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.08911236181732993</v>
+        <v>0.08868777849641099</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07183511233107881</v>
+        <v>0.07037581394558103</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0924316565862565</v>
+        <v>0.09753280933012103</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.07634257107951133</v>
+        <v>0.07575807841962316</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.07267927924641303</v>
+        <v>0.07240796900994219</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.08105725498405456</v>
+        <v>0.07883686114526844</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.06071731481383248</v>
+        <v>0.06180844036961353</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02457309006510819</v>
+        <v>0.02505324964913147</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04769311470236781</v>
+        <v>0.04490705993220299</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05720314563603664</v>
+        <v>0.05970310302656791</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03214476731758063</v>
+        <v>0.03343372366602593</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07805271304485736</v>
+        <v>0.07861139732105026</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06646358852806122</v>
+        <v>0.06775480656833588</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03332787825571477</v>
+        <v>0.03451319742862402</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.07178627556480173</v>
+        <v>0.0704830599211087</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1338317280509421</v>
+        <v>0.1330507445491635</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07915351158664199</v>
+        <v>0.08008255846044234</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1264554090067608</v>
+        <v>0.1279281289610784</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1234261941195202</v>
+        <v>0.1238704022122271</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.08062376079449288</v>
+        <v>0.08526763995013936</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1651688844188103</v>
+        <v>0.1690603218907906</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1167851182596281</v>
+        <v>0.1178488021776221</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06931756820267262</v>
+        <v>0.07169235539733577</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1332754198503993</v>
+        <v>0.1295145447844412</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1195483916517708</v>
+        <v>0.1204718811649861</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02796082140646575</v>
+        <v>0.02657745292873457</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01239837281275319</v>
+        <v>0.01236603940135622</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03424994073178091</v>
+        <v>0.03438977801554838</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02203046214939275</v>
+        <v>0.02106556960443285</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.09926353613199673</v>
+        <v>0.09924745464987904</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0864750465103974</v>
+        <v>0.0835156488168432</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03115504834706602</v>
+        <v>0.03175924047756323</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07762579912586377</v>
+        <v>0.07943374952538622</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3051357340775865</v>
+        <v>0.3047322078680845</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1190512587220157</v>
+        <v>0.1182170130699133</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1131873555128621</v>
+        <v>0.1131557404440078</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1549131736445196</v>
+        <v>0.1517236924379506</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.08218911724433994</v>
+        <v>0.08008573392666099</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2260220121192681</v>
+        <v>0.2251873194763045</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1977804120321779</v>
+        <v>0.1938616668585683</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.0866137885922597</v>
+        <v>0.08483455072720222</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1650314593897569</v>
+        <v>0.1632871231989958</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.06130416811074238</v>
+        <v>0.06071734995944516</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03959405169699339</v>
+        <v>0.03891397893474222</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03758970365889386</v>
+        <v>0.03653755808702146</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0468550998139239</v>
+        <v>0.04773112786492335</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04266982133318647</v>
+        <v>0.04273908481516741</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.07751885095023113</v>
+        <v>0.07645257012909168</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.05858069091735943</v>
+        <v>0.05679202579524265</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.04394180270358309</v>
+        <v>0.04430160433927544</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0644526387202444</v>
+        <v>0.06488504054400011</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1045189963071808</v>
+        <v>0.1063491084089317</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06858716642846414</v>
+        <v>0.06793569201054656</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06830039628538674</v>
+        <v>0.06837091147694412</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.07756349140291412</v>
+        <v>0.07794667477572677</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.06595330831219233</v>
+        <v>0.06626110784307705</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1122649382612907</v>
+        <v>0.1123247750025205</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.08478367797421038</v>
+        <v>0.08383361827135884</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.0615612595385972</v>
+        <v>0.06198919201444036</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.08983816056740571</v>
+        <v>0.09099636854999875</v>
       </c>
     </row>
     <row r="19">
@@ -1402,28 +1402,28 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7917</v>
+        <v>7580</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>5283</v>
+        <v>5227</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>4463</v>
+        <v>4914</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>21562</v>
+        <v>22213</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>26776</v>
+        <v>27326</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5895</v>
+        <v>5941</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>33965</v>
+        <v>33235</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>36021</v>
+        <v>37184</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6039</v>
+        <v>5879</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>23225</v>
+        <v>23132</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>18127</v>
+        <v>18635</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>17495</v>
+        <v>17534</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>43321</v>
+        <v>43650</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>50106</v>
+        <v>50608</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>18670</v>
+        <v>19391</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>60061</v>
+        <v>60290</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>62425</v>
+        <v>63006</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>6184</v>
+        <v>5509</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>11041</v>
+        <v>11009</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>4852</v>
+        <v>5055</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>12377</v>
+        <v>12930</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>15019</v>
+        <v>14248</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>11628</v>
+        <v>11771</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>21547</v>
+        <v>20922</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>29728</v>
+        <v>28926</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>20021</v>
+        <v>19093</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>19686</v>
+        <v>18721</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>27392</v>
+        <v>27152</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>16647</v>
+        <v>18155</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>30612</v>
+        <v>30466</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>33940</v>
+        <v>33250</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>28467</v>
+        <v>30038</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>43029</v>
+        <v>42699</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>54934</v>
+        <v>54728</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>40334</v>
+        <v>39229</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>15347</v>
+        <v>15623</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5721</v>
+        <v>5833</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>9024</v>
+        <v>8497</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>16408</v>
+        <v>17125</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>11289</v>
+        <v>11741</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>15944</v>
+        <v>16059</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>35863</v>
+        <v>36560</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>19464</v>
+        <v>20156</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>28248</v>
+        <v>27735</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>33828</v>
+        <v>33630</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>18429</v>
+        <v>18645</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>23928</v>
+        <v>24207</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>35402</v>
+        <v>35530</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>28314</v>
+        <v>29944</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>33740</v>
+        <v>34535</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>63016</v>
+        <v>63590</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>40482</v>
+        <v>41869</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>52444</v>
+        <v>50964</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>8521</v>
+        <v>8587</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3966</v>
+        <v>3770</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2974</v>
+        <v>2986</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3824</v>
+        <v>3657</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>14564</v>
+        <v>14562</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>13672</v>
+        <v>13204</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>9828</v>
+        <v>10018</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>17787</v>
+        <v>18201</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>21749</v>
+        <v>21720</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>16887</v>
+        <v>16769</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>9328</v>
+        <v>9325</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>13450</v>
+        <v>13174</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>14268</v>
+        <v>13903</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>33163</v>
+        <v>33040</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>31269</v>
+        <v>30650</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>27322</v>
+        <v>26761</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>37814</v>
+        <v>37415</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>38164</v>
+        <v>37798</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>38821</v>
+        <v>38155</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>28331</v>
+        <v>27538</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>46539</v>
+        <v>47410</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>64469</v>
+        <v>64574</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>85923</v>
+        <v>84741</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>94654</v>
+        <v>91764</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>109476</v>
+        <v>110372</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>120019</v>
+        <v>120824</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>65066</v>
+        <v>66206</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>67249</v>
+        <v>66610</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>51478</v>
+        <v>51531</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>77041</v>
+        <v>77421</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>99648</v>
+        <v>100113</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>124436</v>
+        <v>124503</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>136993</v>
+        <v>135458</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>153372</v>
+        <v>154439</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>167289</v>
+        <v>169446</v>
       </c>
     </row>
     <row r="24">
